--- a/Mappings/ParticipationInSociety - STU3.xlsx
+++ b/Mappings/ParticipationInSociety - STU3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27498" windowHeight="13998" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Voorblad" sheetId="1" r:id="rId1"/>
@@ -341,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -496,21 +501,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,7 +536,13 @@
     <xdr:ext cx="2856900" cy="618995"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -563,7 +577,13 @@
     <xdr:ext cx="1428750" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -598,7 +618,13 @@
     <xdr:ext cx="5857875" cy="3571875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -627,7 +653,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,9 +728,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,6 +780,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,13 +977,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -963,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -971,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -979,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -995,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1011,7 +1071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
@@ -1037,19 +1097,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1073,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1097,13 +1157,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1111,13 +1171,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1125,13 +1185,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1139,7 +1199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1147,7 +1207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1179,7 +1239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1195,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1244,9 +1304,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -1259,11 +1319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1277,7 +1337,7 @@
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
@@ -1317,7 +1377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1409,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="51.6" x14ac:dyDescent="0.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>72</v>
@@ -1380,12 +1440,12 @@
         <v>79</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="14" t="s">
         <v>104</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>80</v>
@@ -1416,12 +1476,12 @@
         <v>84</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>104</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="2:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="51.6" x14ac:dyDescent="0.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>85</v>
@@ -1452,12 +1512,12 @@
         <v>89</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>104</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -1488,7 +1548,7 @@
         <v>94</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="14" t="s">
         <v>105</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1507,37 +1567,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="154.80000000000001" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
